--- a/ebs_with_tracing/forms/app/quarantine.xlsx
+++ b/ebs_with_tracing/forms/app/quarantine.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="426">
   <si>
     <t>list_name</t>
   </si>
@@ -176,18 +176,12 @@
     <t>places</t>
   </si>
   <si>
-    <t>hotel</t>
-  </si>
-  <si>
     <t>./source = 'user'</t>
   </si>
   <si>
     <t>field-list</t>
   </si>
   <si>
-    <t>Hotel</t>
-  </si>
-  <si>
     <t>hidden</t>
   </si>
   <si>
@@ -245,15 +239,9 @@
     <t>home</t>
   </si>
   <si>
-    <t>Personal Home</t>
-  </si>
-  <si>
     <t>other</t>
   </si>
   <si>
-    <t>Other places</t>
-  </si>
-  <si>
     <t>provinces</t>
   </si>
   <si>
@@ -626,33 +614,12 @@
     <t>arrival_date</t>
   </si>
   <si>
-    <t>Date of Arrival in Nepal</t>
-  </si>
-  <si>
     <t>feels_sick_when_using_it</t>
   </si>
   <si>
     <t>Feels sick when using it</t>
   </si>
   <si>
-    <t>airline</t>
-  </si>
-  <si>
-    <t>Name of the airlines</t>
-  </si>
-  <si>
-    <t>flight</t>
-  </si>
-  <si>
-    <t>Flight No.</t>
-  </si>
-  <si>
-    <t>seat</t>
-  </si>
-  <si>
-    <t>Seat No.</t>
-  </si>
-  <si>
     <t>begin_repeat</t>
   </si>
   <si>
@@ -683,15 +650,6 @@
     <t>Please indicate your accomodation.</t>
   </si>
   <si>
-    <t>hotel_name</t>
-  </si>
-  <si>
-    <t>Specify Hotel name</t>
-  </si>
-  <si>
-    <t>selected(../staying_at, 'hotel')</t>
-  </si>
-  <si>
     <t>other_name</t>
   </si>
   <si>
@@ -701,42 +659,12 @@
     <t>selected(../staying_at, 'other')</t>
   </si>
   <si>
-    <t>select_one provinces</t>
-  </si>
-  <si>
-    <t>Province</t>
-  </si>
-  <si>
-    <t>minimal</t>
-  </si>
-  <si>
-    <t>select_one districts</t>
-  </si>
-  <si>
     <t>district</t>
   </si>
   <si>
     <t>District</t>
   </si>
   <si>
-    <t>province = ${province}</t>
-  </si>
-  <si>
-    <t>municipality</t>
-  </si>
-  <si>
-    <t>Municipality</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>ward</t>
-  </si>
-  <si>
-    <t>Ward no.</t>
-  </si>
-  <si>
     <t>house</t>
   </si>
   <si>
@@ -1359,6 +1287,27 @@
   </si>
   <si>
     <t>nyamuzizi</t>
+  </si>
+  <si>
+    <t>Date of Arrival in Zimbabwe</t>
+  </si>
+  <si>
+    <t>lgh</t>
+  </si>
+  <si>
+    <t>Luisa Guidotti Hospital Quarantine</t>
+  </si>
+  <si>
+    <t>Patient's Home</t>
+  </si>
+  <si>
+    <t>lgh_home</t>
+  </si>
+  <si>
+    <t>Luisa Guidotti Hospital Residence</t>
+  </si>
+  <si>
+    <t>Other Place</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1317,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1428,6 +1377,12 @@
       <sz val="10"/>
       <color rgb="FF76A5AF"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1535,7 +1490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1649,6 +1604,12 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1932,13 +1893,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA66"/>
+  <dimension ref="A1:AA58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2038,10 +1999,10 @@
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
       <c r="F2" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="23" t="s">
         <v>49</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>50</v>
       </c>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -2066,13 +2027,13 @@
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>52</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>54</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
@@ -2085,7 +2046,7 @@
       <c r="L3" s="23"/>
       <c r="M3" s="23"/>
       <c r="N3" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O3" s="23"/>
       <c r="P3" s="23"/>
@@ -2103,13 +2064,13 @@
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -2141,7 +2102,7 @@
         <v>36</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>39</v>
@@ -2173,19 +2134,19 @@
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>59</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>61</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
       <c r="G6" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
@@ -2210,13 +2171,13 @@
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
@@ -2245,13 +2206,13 @@
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
@@ -2280,13 +2241,13 @@
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
@@ -2318,7 +2279,7 @@
         <v>36</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>39</v>
@@ -2350,13 +2311,13 @@
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
@@ -2385,13 +2346,13 @@
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
@@ -2420,13 +2381,13 @@
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D13" s="30"/>
       <c r="E13" s="30"/>
@@ -2455,13 +2416,13 @@
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
@@ -2490,7 +2451,7 @@
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="33" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="30"/>
@@ -2521,10 +2482,10 @@
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -2554,7 +2515,7 @@
     </row>
     <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B17" s="37" t="s">
         <v>38</v>
@@ -2574,7 +2535,7 @@
       <c r="O17" s="23"/>
       <c r="P17" s="23"/>
       <c r="Q17" s="38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R17" s="23"/>
       <c r="S17" s="25"/>
@@ -2618,10 +2579,10 @@
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="42" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C19" s="43" t="s">
         <v>39</v>
@@ -2634,7 +2595,7 @@
       <c r="I19" s="43"/>
       <c r="J19" s="43"/>
       <c r="K19" s="43" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L19" s="43"/>
       <c r="M19" s="43"/>
@@ -2655,10 +2616,10 @@
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="42" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C20" s="43" t="s">
         <v>39</v>
@@ -2671,7 +2632,7 @@
       <c r="I20" s="43"/>
       <c r="J20" s="43"/>
       <c r="K20" s="44" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L20" s="43"/>
       <c r="M20" s="43"/>
@@ -2692,10 +2653,10 @@
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="42" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C21" s="43" t="s">
         <v>39</v>
@@ -2708,7 +2669,7 @@
       <c r="I21" s="43"/>
       <c r="J21" s="43"/>
       <c r="K21" s="44" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L21" s="43"/>
       <c r="M21" s="43"/>
@@ -2758,13 +2719,13 @@
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="50" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D23" s="52"/>
       <c r="E23" s="52"/>
@@ -2777,7 +2738,7 @@
       <c r="L23" s="52"/>
       <c r="M23" s="52"/>
       <c r="N23" s="51" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O23" s="52"/>
       <c r="P23" s="52"/>
@@ -2798,16 +2759,16 @@
         <v>36</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D24" s="52"/>
       <c r="E24" s="52"/>
       <c r="F24" s="53"/>
       <c r="G24" s="51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H24" s="51"/>
       <c r="I24" s="52"/>
@@ -2832,13 +2793,13 @@
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="50" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B25" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="C25" s="51" t="s">
-        <v>198</v>
+        <v>193</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>419</v>
       </c>
       <c r="D25" s="52"/>
       <c r="E25" s="52"/>
@@ -2867,57 +2828,57 @@
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="50" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D26" s="52"/>
       <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
+      <c r="F26" s="51"/>
       <c r="G26" s="52"/>
       <c r="H26" s="52"/>
       <c r="I26" s="52"/>
       <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
+      <c r="K26" s="53"/>
       <c r="L26" s="52"/>
       <c r="M26" s="52"/>
       <c r="N26" s="52"/>
       <c r="O26" s="52"/>
       <c r="P26" s="52"/>
-      <c r="Q26" s="53"/>
+      <c r="Q26" s="52"/>
       <c r="R26" s="52"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="54"/>
-      <c r="W26" s="54"/>
-      <c r="X26" s="54"/>
-      <c r="Y26" s="54"/>
-      <c r="Z26" s="54"/>
-      <c r="AA26" s="54"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="57"/>
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="50" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B27" s="50" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="D27" s="52"/>
       <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="F27" s="51"/>
       <c r="G27" s="52"/>
       <c r="H27" s="52"/>
       <c r="I27" s="52"/>
       <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
+      <c r="K27" s="53"/>
       <c r="L27" s="52"/>
       <c r="M27" s="52"/>
       <c r="N27" s="52"/>
@@ -2925,26 +2886,22 @@
       <c r="P27" s="52"/>
       <c r="Q27" s="52"/>
       <c r="R27" s="52"/>
-      <c r="S27" s="54"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="54"/>
-      <c r="V27" s="54"/>
-      <c r="W27" s="54"/>
-      <c r="X27" s="54"/>
-      <c r="Y27" s="54"/>
-      <c r="Z27" s="54"/>
-      <c r="AA27" s="54"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="57"/>
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="B28" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="C28" s="51" t="s">
-        <v>206</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B28" s="58"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="52"/>
       <c r="E28" s="52"/>
       <c r="F28" s="52"/>
@@ -2958,7 +2915,7 @@
       <c r="N28" s="52"/>
       <c r="O28" s="52"/>
       <c r="P28" s="52"/>
-      <c r="Q28" s="53"/>
+      <c r="Q28" s="52"/>
       <c r="R28" s="52"/>
       <c r="S28" s="57"/>
       <c r="T28" s="57"/>
@@ -2972,17 +2929,13 @@
     </row>
     <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="B29" s="50" t="s">
-        <v>208</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>209</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B29" s="58"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="52"/>
       <c r="E29" s="52"/>
-      <c r="F29" s="51"/>
+      <c r="F29" s="52"/>
       <c r="G29" s="52"/>
       <c r="H29" s="52"/>
       <c r="I29" s="52"/>
@@ -3006,18 +2959,12 @@
       <c r="AA29" s="57"/>
     </row>
     <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="B30" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="C30" s="51" t="s">
-        <v>39</v>
-      </c>
+      <c r="A30" s="58"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="52"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="51"/>
+      <c r="F30" s="52"/>
       <c r="G30" s="52"/>
       <c r="H30" s="52"/>
       <c r="I30" s="52"/>
@@ -3042,18 +2989,24 @@
     </row>
     <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="50" t="s">
-        <v>211</v>
-      </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="52"/>
+        <v>36</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>202</v>
+      </c>
       <c r="D31" s="52"/>
       <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="H31" s="51"/>
       <c r="I31" s="52"/>
       <c r="J31" s="52"/>
-      <c r="K31" s="53"/>
+      <c r="K31" s="52"/>
       <c r="L31" s="52"/>
       <c r="M31" s="52"/>
       <c r="N31" s="52"/>
@@ -3061,30 +3014,34 @@
       <c r="P31" s="52"/>
       <c r="Q31" s="52"/>
       <c r="R31" s="52"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="57"/>
-      <c r="U31" s="57"/>
-      <c r="V31" s="57"/>
-      <c r="W31" s="57"/>
-      <c r="X31" s="57"/>
-      <c r="Y31" s="57"/>
-      <c r="Z31" s="57"/>
-      <c r="AA31" s="57"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
+      <c r="V31" s="54"/>
+      <c r="W31" s="54"/>
+      <c r="X31" s="54"/>
+      <c r="Y31" s="54"/>
+      <c r="Z31" s="54"/>
+      <c r="AA31" s="54"/>
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" s="58"/>
-      <c r="C32" s="52"/>
+        <v>203</v>
+      </c>
+      <c r="B32" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>205</v>
+      </c>
       <c r="D32" s="52"/>
       <c r="E32" s="52"/>
       <c r="F32" s="52"/>
       <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
+      <c r="H32" s="51"/>
       <c r="I32" s="52"/>
       <c r="J32" s="52"/>
-      <c r="K32" s="53"/>
+      <c r="K32" s="56"/>
       <c r="L32" s="52"/>
       <c r="M32" s="52"/>
       <c r="N32" s="52"/>
@@ -3103,12 +3060,20 @@
       <c r="AA32" s="57"/>
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="58"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="52"/>
+      <c r="A33" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>207</v>
+      </c>
       <c r="D33" s="52"/>
       <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
+      <c r="F33" s="51" t="s">
+        <v>208</v>
+      </c>
       <c r="G33" s="52"/>
       <c r="H33" s="52"/>
       <c r="I33" s="52"/>
@@ -3133,24 +3098,22 @@
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="50" t="s">
-        <v>36</v>
+        <v>186</v>
       </c>
       <c r="B34" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="C34" s="51" t="s">
         <v>212</v>
-      </c>
-      <c r="C34" s="51" t="s">
-        <v>213</v>
       </c>
       <c r="D34" s="52"/>
       <c r="E34" s="52"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="H34" s="51"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
       <c r="I34" s="52"/>
       <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
+      <c r="K34" s="53"/>
       <c r="L34" s="52"/>
       <c r="M34" s="52"/>
       <c r="N34" s="52"/>
@@ -3158,34 +3121,34 @@
       <c r="P34" s="52"/>
       <c r="Q34" s="52"/>
       <c r="R34" s="52"/>
-      <c r="S34" s="54"/>
-      <c r="T34" s="54"/>
-      <c r="U34" s="54"/>
-      <c r="V34" s="54"/>
-      <c r="W34" s="54"/>
-      <c r="X34" s="54"/>
-      <c r="Y34" s="54"/>
-      <c r="Z34" s="54"/>
-      <c r="AA34" s="54"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="57"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="57"/>
+      <c r="W34" s="57"/>
+      <c r="X34" s="57"/>
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="57"/>
+      <c r="AA34" s="57"/>
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="B35" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="B35" s="50" t="s">
+      <c r="C35" s="51" t="s">
         <v>215</v>
-      </c>
-      <c r="C35" s="51" t="s">
-        <v>216</v>
       </c>
       <c r="D35" s="52"/>
       <c r="E35" s="52"/>
       <c r="F35" s="52"/>
       <c r="G35" s="52"/>
-      <c r="H35" s="51"/>
+      <c r="H35" s="52"/>
       <c r="I35" s="52"/>
       <c r="J35" s="52"/>
-      <c r="K35" s="56"/>
+      <c r="K35" s="53"/>
       <c r="L35" s="52"/>
       <c r="M35" s="52"/>
       <c r="N35" s="52"/>
@@ -3205,24 +3168,22 @@
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="50" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="B36" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="C36" s="51" t="s">
         <v>217</v>
-      </c>
-      <c r="C36" s="51" t="s">
-        <v>218</v>
       </c>
       <c r="D36" s="52"/>
       <c r="E36" s="52"/>
-      <c r="F36" s="51" t="s">
-        <v>219</v>
-      </c>
+      <c r="F36" s="52"/>
       <c r="G36" s="52"/>
-      <c r="H36" s="51"/>
+      <c r="H36" s="52"/>
       <c r="I36" s="52"/>
       <c r="J36" s="52"/>
-      <c r="K36" s="56"/>
+      <c r="K36" s="53"/>
       <c r="L36" s="52"/>
       <c r="M36" s="52"/>
       <c r="N36" s="52"/>
@@ -3242,19 +3203,17 @@
     </row>
     <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="50" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B37" s="50" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C37" s="51" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D37" s="52"/>
       <c r="E37" s="52"/>
-      <c r="F37" s="51" t="s">
-        <v>222</v>
-      </c>
+      <c r="F37" s="52"/>
       <c r="G37" s="52"/>
       <c r="H37" s="52"/>
       <c r="I37" s="52"/>
@@ -3279,20 +3238,18 @@
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="50" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="B38" s="50" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C38" s="51" t="s">
-        <v>224</v>
+        <v>62</v>
       </c>
       <c r="D38" s="52"/>
       <c r="E38" s="52"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51" t="s">
-        <v>225</v>
-      </c>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
       <c r="H38" s="52"/>
       <c r="I38" s="52"/>
       <c r="J38" s="52"/>
@@ -3316,27 +3273,23 @@
     </row>
     <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="50" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="B39" s="50" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C39" s="51" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D39" s="52"/>
       <c r="E39" s="52"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51" t="s">
-        <v>225</v>
-      </c>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
       <c r="H39" s="52"/>
       <c r="I39" s="52"/>
       <c r="J39" s="52"/>
       <c r="K39" s="53"/>
-      <c r="L39" s="51" t="s">
-        <v>229</v>
-      </c>
+      <c r="L39" s="52"/>
       <c r="M39" s="52"/>
       <c r="N39" s="52"/>
       <c r="O39" s="52"/>
@@ -3355,14 +3308,10 @@
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="B40" s="50" t="s">
-        <v>230</v>
-      </c>
-      <c r="C40" s="51" t="s">
-        <v>231</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B40" s="58"/>
+      <c r="C40" s="52"/>
       <c r="D40" s="52"/>
       <c r="E40" s="52"/>
       <c r="F40" s="52"/>
@@ -3390,14 +3339,10 @@
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="50" t="s">
-        <v>232</v>
-      </c>
-      <c r="B41" s="50" t="s">
-        <v>233</v>
-      </c>
-      <c r="C41" s="51" t="s">
-        <v>234</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B41" s="58"/>
+      <c r="C41" s="52"/>
       <c r="D41" s="52"/>
       <c r="E41" s="52"/>
       <c r="F41" s="52"/>
@@ -3424,23 +3369,17 @@
       <c r="AA41" s="57"/>
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="B42" s="50" t="s">
-        <v>235</v>
-      </c>
-      <c r="C42" s="51" t="s">
-        <v>236</v>
-      </c>
+      <c r="A42" s="50"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="53"/>
       <c r="D42" s="52"/>
       <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
+      <c r="F42" s="53"/>
       <c r="G42" s="52"/>
       <c r="H42" s="52"/>
       <c r="I42" s="52"/>
       <c r="J42" s="52"/>
-      <c r="K42" s="53"/>
+      <c r="K42" s="52"/>
       <c r="L42" s="52"/>
       <c r="M42" s="52"/>
       <c r="N42" s="52"/>
@@ -3448,34 +3387,36 @@
       <c r="P42" s="52"/>
       <c r="Q42" s="52"/>
       <c r="R42" s="52"/>
-      <c r="S42" s="57"/>
-      <c r="T42" s="57"/>
-      <c r="U42" s="57"/>
-      <c r="V42" s="57"/>
-      <c r="W42" s="57"/>
-      <c r="X42" s="57"/>
-      <c r="Y42" s="57"/>
-      <c r="Z42" s="57"/>
-      <c r="AA42" s="57"/>
+      <c r="S42" s="60"/>
+      <c r="T42" s="60"/>
+      <c r="U42" s="60"/>
+      <c r="V42" s="60"/>
+      <c r="W42" s="60"/>
+      <c r="X42" s="60"/>
+      <c r="Y42" s="60"/>
+      <c r="Z42" s="60"/>
+      <c r="AA42" s="60"/>
     </row>
     <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="50" t="s">
-        <v>237</v>
+        <v>36</v>
       </c>
       <c r="B43" s="50" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="C43" s="51" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="D43" s="52"/>
       <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43" s="51"/>
       <c r="I43" s="52"/>
       <c r="J43" s="52"/>
-      <c r="K43" s="53"/>
+      <c r="K43" s="52"/>
       <c r="L43" s="52"/>
       <c r="M43" s="52"/>
       <c r="N43" s="52"/>
@@ -3483,25 +3424,25 @@
       <c r="P43" s="52"/>
       <c r="Q43" s="52"/>
       <c r="R43" s="52"/>
-      <c r="S43" s="57"/>
-      <c r="T43" s="57"/>
-      <c r="U43" s="57"/>
-      <c r="V43" s="57"/>
-      <c r="W43" s="57"/>
-      <c r="X43" s="57"/>
-      <c r="Y43" s="57"/>
-      <c r="Z43" s="57"/>
-      <c r="AA43" s="57"/>
+      <c r="S43" s="60"/>
+      <c r="T43" s="60"/>
+      <c r="U43" s="60"/>
+      <c r="V43" s="60"/>
+      <c r="W43" s="60"/>
+      <c r="X43" s="60"/>
+      <c r="Y43" s="60"/>
+      <c r="Z43" s="60"/>
+      <c r="AA43" s="60"/>
     </row>
     <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="50" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="B44" s="50" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="C44" s="51" t="s">
-        <v>241</v>
+        <v>39</v>
       </c>
       <c r="D44" s="52"/>
       <c r="E44" s="52"/>
@@ -3530,13 +3471,13 @@
     </row>
     <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="50" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>242</v>
+        <v>3</v>
       </c>
       <c r="C45" s="51" t="s">
-        <v>243</v>
+        <v>62</v>
       </c>
       <c r="D45" s="52"/>
       <c r="E45" s="52"/>
@@ -3565,13 +3506,13 @@
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="50" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="B46" s="50" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C46" s="51" t="s">
-        <v>64</v>
+        <v>217</v>
       </c>
       <c r="D46" s="52"/>
       <c r="E46" s="52"/>
@@ -3600,13 +3541,13 @@
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="50" t="s">
-        <v>237</v>
+        <v>186</v>
       </c>
       <c r="B47" s="50" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="C47" s="51" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="D47" s="52"/>
       <c r="E47" s="52"/>
@@ -3635,7 +3576,7 @@
     </row>
     <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="50" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B48" s="58"/>
       <c r="C48" s="52"/>
@@ -3666,18 +3607,18 @@
     </row>
     <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" s="58"/>
-      <c r="C49" s="52"/>
+        <v>90</v>
+      </c>
+      <c r="B49" s="50"/>
+      <c r="C49" s="51"/>
       <c r="D49" s="52"/>
       <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
+      <c r="F49" s="53"/>
       <c r="G49" s="52"/>
       <c r="H49" s="52"/>
       <c r="I49" s="52"/>
       <c r="J49" s="52"/>
-      <c r="K49" s="53"/>
+      <c r="K49" s="52"/>
       <c r="L49" s="52"/>
       <c r="M49" s="52"/>
       <c r="N49" s="52"/>
@@ -3685,20 +3626,20 @@
       <c r="P49" s="52"/>
       <c r="Q49" s="52"/>
       <c r="R49" s="52"/>
-      <c r="S49" s="57"/>
-      <c r="T49" s="57"/>
-      <c r="U49" s="57"/>
-      <c r="V49" s="57"/>
-      <c r="W49" s="57"/>
-      <c r="X49" s="57"/>
-      <c r="Y49" s="57"/>
-      <c r="Z49" s="57"/>
-      <c r="AA49" s="57"/>
+      <c r="S49" s="60"/>
+      <c r="T49" s="60"/>
+      <c r="U49" s="60"/>
+      <c r="V49" s="60"/>
+      <c r="W49" s="60"/>
+      <c r="X49" s="60"/>
+      <c r="Y49" s="60"/>
+      <c r="Z49" s="60"/>
+      <c r="AA49" s="60"/>
     </row>
     <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="50"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="53"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="51"/>
       <c r="D50" s="52"/>
       <c r="E50" s="52"/>
       <c r="F50" s="53"/>
@@ -3729,16 +3670,16 @@
         <v>36</v>
       </c>
       <c r="B51" s="50" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="C51" s="51" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="D51" s="52"/>
       <c r="E51" s="52"/>
       <c r="F51" s="53"/>
       <c r="G51" s="51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H51" s="51"/>
       <c r="I51" s="52"/>
@@ -3763,22 +3704,22 @@
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="50" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="B52" s="50" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C52" s="51" t="s">
-        <v>39</v>
+        <v>228</v>
       </c>
       <c r="D52" s="52"/>
       <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
+      <c r="F52" s="53"/>
       <c r="G52" s="52"/>
       <c r="H52" s="52"/>
       <c r="I52" s="52"/>
       <c r="J52" s="52"/>
-      <c r="K52" s="53"/>
+      <c r="K52" s="52"/>
       <c r="L52" s="52"/>
       <c r="M52" s="52"/>
       <c r="N52" s="52"/>
@@ -3786,34 +3727,34 @@
       <c r="P52" s="52"/>
       <c r="Q52" s="52"/>
       <c r="R52" s="52"/>
-      <c r="S52" s="57"/>
-      <c r="T52" s="57"/>
-      <c r="U52" s="57"/>
-      <c r="V52" s="57"/>
-      <c r="W52" s="57"/>
-      <c r="X52" s="57"/>
-      <c r="Y52" s="57"/>
-      <c r="Z52" s="57"/>
-      <c r="AA52" s="57"/>
+      <c r="S52" s="60"/>
+      <c r="T52" s="60"/>
+      <c r="U52" s="60"/>
+      <c r="V52" s="60"/>
+      <c r="W52" s="60"/>
+      <c r="X52" s="60"/>
+      <c r="Y52" s="60"/>
+      <c r="Z52" s="60"/>
+      <c r="AA52" s="60"/>
     </row>
     <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="50" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B53" s="50" t="s">
-        <v>3</v>
+        <v>229</v>
       </c>
       <c r="C53" s="51" t="s">
-        <v>64</v>
+        <v>230</v>
       </c>
       <c r="D53" s="52"/>
       <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
+      <c r="F53" s="53"/>
       <c r="G53" s="52"/>
       <c r="H53" s="52"/>
       <c r="I53" s="52"/>
       <c r="J53" s="52"/>
-      <c r="K53" s="53"/>
+      <c r="K53" s="52"/>
       <c r="L53" s="52"/>
       <c r="M53" s="52"/>
       <c r="N53" s="52"/>
@@ -3821,34 +3762,34 @@
       <c r="P53" s="52"/>
       <c r="Q53" s="52"/>
       <c r="R53" s="52"/>
-      <c r="S53" s="57"/>
-      <c r="T53" s="57"/>
-      <c r="U53" s="57"/>
-      <c r="V53" s="57"/>
-      <c r="W53" s="57"/>
-      <c r="X53" s="57"/>
-      <c r="Y53" s="57"/>
-      <c r="Z53" s="57"/>
-      <c r="AA53" s="57"/>
+      <c r="S53" s="60"/>
+      <c r="T53" s="60"/>
+      <c r="U53" s="60"/>
+      <c r="V53" s="60"/>
+      <c r="W53" s="60"/>
+      <c r="X53" s="60"/>
+      <c r="Y53" s="60"/>
+      <c r="Z53" s="60"/>
+      <c r="AA53" s="60"/>
     </row>
     <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="50" t="s">
-        <v>237</v>
+        <v>186</v>
       </c>
       <c r="B54" s="50" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="C54" s="51" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D54" s="52"/>
       <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
+      <c r="F54" s="53"/>
       <c r="G54" s="52"/>
       <c r="H54" s="52"/>
       <c r="I54" s="52"/>
       <c r="J54" s="52"/>
-      <c r="K54" s="53"/>
+      <c r="K54" s="52"/>
       <c r="L54" s="52"/>
       <c r="M54" s="52"/>
       <c r="N54" s="52"/>
@@ -3856,34 +3797,34 @@
       <c r="P54" s="52"/>
       <c r="Q54" s="52"/>
       <c r="R54" s="52"/>
-      <c r="S54" s="57"/>
-      <c r="T54" s="57"/>
-      <c r="U54" s="57"/>
-      <c r="V54" s="57"/>
-      <c r="W54" s="57"/>
-      <c r="X54" s="57"/>
-      <c r="Y54" s="57"/>
-      <c r="Z54" s="57"/>
-      <c r="AA54" s="57"/>
+      <c r="S54" s="60"/>
+      <c r="T54" s="60"/>
+      <c r="U54" s="60"/>
+      <c r="V54" s="60"/>
+      <c r="W54" s="60"/>
+      <c r="X54" s="60"/>
+      <c r="Y54" s="60"/>
+      <c r="Z54" s="60"/>
+      <c r="AA54" s="60"/>
     </row>
     <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="50" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B55" s="50" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="C55" s="51" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="D55" s="52"/>
       <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
+      <c r="F55" s="53"/>
       <c r="G55" s="52"/>
       <c r="H55" s="52"/>
       <c r="I55" s="52"/>
       <c r="J55" s="52"/>
-      <c r="K55" s="53"/>
+      <c r="K55" s="52"/>
       <c r="L55" s="52"/>
       <c r="M55" s="52"/>
       <c r="N55" s="52"/>
@@ -3891,30 +3832,34 @@
       <c r="P55" s="52"/>
       <c r="Q55" s="52"/>
       <c r="R55" s="52"/>
-      <c r="S55" s="57"/>
-      <c r="T55" s="57"/>
-      <c r="U55" s="57"/>
-      <c r="V55" s="57"/>
-      <c r="W55" s="57"/>
-      <c r="X55" s="57"/>
-      <c r="Y55" s="57"/>
-      <c r="Z55" s="57"/>
-      <c r="AA55" s="57"/>
+      <c r="S55" s="60"/>
+      <c r="T55" s="60"/>
+      <c r="U55" s="60"/>
+      <c r="V55" s="60"/>
+      <c r="W55" s="60"/>
+      <c r="X55" s="60"/>
+      <c r="Y55" s="60"/>
+      <c r="Z55" s="60"/>
+      <c r="AA55" s="60"/>
     </row>
     <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="50" t="s">
-        <v>211</v>
-      </c>
-      <c r="B56" s="58"/>
-      <c r="C56" s="52"/>
+        <v>186</v>
+      </c>
+      <c r="B56" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="C56" s="51" t="s">
+        <v>236</v>
+      </c>
       <c r="D56" s="52"/>
       <c r="E56" s="52"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="52"/>
-      <c r="H56" s="52"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
       <c r="I56" s="52"/>
       <c r="J56" s="52"/>
-      <c r="K56" s="53"/>
+      <c r="K56" s="51"/>
       <c r="L56" s="52"/>
       <c r="M56" s="52"/>
       <c r="N56" s="52"/>
@@ -3922,30 +3867,34 @@
       <c r="P56" s="52"/>
       <c r="Q56" s="52"/>
       <c r="R56" s="52"/>
-      <c r="S56" s="57"/>
-      <c r="T56" s="57"/>
-      <c r="U56" s="57"/>
-      <c r="V56" s="57"/>
-      <c r="W56" s="57"/>
-      <c r="X56" s="57"/>
-      <c r="Y56" s="57"/>
-      <c r="Z56" s="57"/>
-      <c r="AA56" s="57"/>
+      <c r="S56" s="60"/>
+      <c r="T56" s="60"/>
+      <c r="U56" s="60"/>
+      <c r="V56" s="60"/>
+      <c r="W56" s="60"/>
+      <c r="X56" s="60"/>
+      <c r="Y56" s="60"/>
+      <c r="Z56" s="60"/>
+      <c r="AA56" s="60"/>
     </row>
     <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="B57" s="50"/>
-      <c r="C57" s="51"/>
+        <v>186</v>
+      </c>
+      <c r="B57" s="61" t="s">
+        <v>209</v>
+      </c>
+      <c r="C57" s="51" t="s">
+        <v>210</v>
+      </c>
       <c r="D57" s="52"/>
       <c r="E57" s="52"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="52"/>
-      <c r="H57" s="52"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
       <c r="I57" s="52"/>
       <c r="J57" s="52"/>
-      <c r="K57" s="52"/>
+      <c r="K57" s="51"/>
       <c r="L57" s="52"/>
       <c r="M57" s="52"/>
       <c r="N57" s="52"/>
@@ -3964,7 +3913,9 @@
       <c r="AA57" s="60"/>
     </row>
     <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="50"/>
+      <c r="A58" s="50" t="s">
+        <v>90</v>
+      </c>
       <c r="B58" s="50"/>
       <c r="C58" s="51"/>
       <c r="D58" s="52"/>
@@ -3992,287 +3943,9 @@
       <c r="Z58" s="60"/>
       <c r="AA58" s="60"/>
     </row>
-    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="B59" s="50" t="s">
-        <v>249</v>
-      </c>
-      <c r="C59" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="D59" s="52"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="53"/>
-      <c r="G59" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="H59" s="51"/>
-      <c r="I59" s="52"/>
-      <c r="J59" s="52"/>
-      <c r="K59" s="52"/>
-      <c r="L59" s="52"/>
-      <c r="M59" s="52"/>
-      <c r="N59" s="52"/>
-      <c r="O59" s="52"/>
-      <c r="P59" s="52"/>
-      <c r="Q59" s="52"/>
-      <c r="R59" s="52"/>
-      <c r="S59" s="60"/>
-      <c r="T59" s="60"/>
-      <c r="U59" s="60"/>
-      <c r="V59" s="60"/>
-      <c r="W59" s="60"/>
-      <c r="X59" s="60"/>
-      <c r="Y59" s="60"/>
-      <c r="Z59" s="60"/>
-      <c r="AA59" s="60"/>
-    </row>
-    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="B60" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="C60" s="51" t="s">
-        <v>252</v>
-      </c>
-      <c r="D60" s="52"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="53"/>
-      <c r="G60" s="52"/>
-      <c r="H60" s="52"/>
-      <c r="I60" s="52"/>
-      <c r="J60" s="52"/>
-      <c r="K60" s="52"/>
-      <c r="L60" s="52"/>
-      <c r="M60" s="52"/>
-      <c r="N60" s="52"/>
-      <c r="O60" s="52"/>
-      <c r="P60" s="52"/>
-      <c r="Q60" s="52"/>
-      <c r="R60" s="52"/>
-      <c r="S60" s="60"/>
-      <c r="T60" s="60"/>
-      <c r="U60" s="60"/>
-      <c r="V60" s="60"/>
-      <c r="W60" s="60"/>
-      <c r="X60" s="60"/>
-      <c r="Y60" s="60"/>
-      <c r="Z60" s="60"/>
-      <c r="AA60" s="60"/>
-    </row>
-    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="B61" s="50" t="s">
-        <v>253</v>
-      </c>
-      <c r="C61" s="51" t="s">
-        <v>254</v>
-      </c>
-      <c r="D61" s="52"/>
-      <c r="E61" s="52"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="52"/>
-      <c r="H61" s="52"/>
-      <c r="I61" s="52"/>
-      <c r="J61" s="52"/>
-      <c r="K61" s="52"/>
-      <c r="L61" s="52"/>
-      <c r="M61" s="52"/>
-      <c r="N61" s="52"/>
-      <c r="O61" s="52"/>
-      <c r="P61" s="52"/>
-      <c r="Q61" s="52"/>
-      <c r="R61" s="52"/>
-      <c r="S61" s="60"/>
-      <c r="T61" s="60"/>
-      <c r="U61" s="60"/>
-      <c r="V61" s="60"/>
-      <c r="W61" s="60"/>
-      <c r="X61" s="60"/>
-      <c r="Y61" s="60"/>
-      <c r="Z61" s="60"/>
-      <c r="AA61" s="60"/>
-    </row>
-    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="B62" s="50" t="s">
-        <v>255</v>
-      </c>
-      <c r="C62" s="51" t="s">
-        <v>256</v>
-      </c>
-      <c r="D62" s="52"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="52"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="52"/>
-      <c r="K62" s="52"/>
-      <c r="L62" s="52"/>
-      <c r="M62" s="52"/>
-      <c r="N62" s="52"/>
-      <c r="O62" s="52"/>
-      <c r="P62" s="52"/>
-      <c r="Q62" s="52"/>
-      <c r="R62" s="52"/>
-      <c r="S62" s="60"/>
-      <c r="T62" s="60"/>
-      <c r="U62" s="60"/>
-      <c r="V62" s="60"/>
-      <c r="W62" s="60"/>
-      <c r="X62" s="60"/>
-      <c r="Y62" s="60"/>
-      <c r="Z62" s="60"/>
-      <c r="AA62" s="60"/>
-    </row>
-    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="B63" s="50" t="s">
-        <v>257</v>
-      </c>
-      <c r="C63" s="51" t="s">
-        <v>258</v>
-      </c>
-      <c r="D63" s="52"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="52"/>
-      <c r="K63" s="52"/>
-      <c r="L63" s="52"/>
-      <c r="M63" s="52"/>
-      <c r="N63" s="52"/>
-      <c r="O63" s="52"/>
-      <c r="P63" s="52"/>
-      <c r="Q63" s="52"/>
-      <c r="R63" s="52"/>
-      <c r="S63" s="60"/>
-      <c r="T63" s="60"/>
-      <c r="U63" s="60"/>
-      <c r="V63" s="60"/>
-      <c r="W63" s="60"/>
-      <c r="X63" s="60"/>
-      <c r="Y63" s="60"/>
-      <c r="Z63" s="60"/>
-      <c r="AA63" s="60"/>
-    </row>
-    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="B64" s="50" t="s">
-        <v>259</v>
-      </c>
-      <c r="C64" s="51" t="s">
-        <v>260</v>
-      </c>
-      <c r="D64" s="52"/>
-      <c r="E64" s="52"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="51"/>
-      <c r="H64" s="51"/>
-      <c r="I64" s="52"/>
-      <c r="J64" s="52"/>
-      <c r="K64" s="51"/>
-      <c r="L64" s="52"/>
-      <c r="M64" s="52"/>
-      <c r="N64" s="52"/>
-      <c r="O64" s="52"/>
-      <c r="P64" s="52"/>
-      <c r="Q64" s="52"/>
-      <c r="R64" s="52"/>
-      <c r="S64" s="60"/>
-      <c r="T64" s="60"/>
-      <c r="U64" s="60"/>
-      <c r="V64" s="60"/>
-      <c r="W64" s="60"/>
-      <c r="X64" s="60"/>
-      <c r="Y64" s="60"/>
-      <c r="Z64" s="60"/>
-      <c r="AA64" s="60"/>
-    </row>
-    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="B65" s="61" t="s">
-        <v>227</v>
-      </c>
-      <c r="C65" s="51" t="s">
-        <v>228</v>
-      </c>
-      <c r="D65" s="52"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="62"/>
-      <c r="G65" s="51"/>
-      <c r="H65" s="51"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="52"/>
-      <c r="K65" s="51"/>
-      <c r="L65" s="52"/>
-      <c r="M65" s="52"/>
-      <c r="N65" s="52"/>
-      <c r="O65" s="52"/>
-      <c r="P65" s="52"/>
-      <c r="Q65" s="52"/>
-      <c r="R65" s="52"/>
-      <c r="S65" s="60"/>
-      <c r="T65" s="60"/>
-      <c r="U65" s="60"/>
-      <c r="V65" s="60"/>
-      <c r="W65" s="60"/>
-      <c r="X65" s="60"/>
-      <c r="Y65" s="60"/>
-      <c r="Z65" s="60"/>
-      <c r="AA65" s="60"/>
-    </row>
-    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="B66" s="50"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="52"/>
-      <c r="E66" s="52"/>
-      <c r="F66" s="53"/>
-      <c r="G66" s="52"/>
-      <c r="H66" s="52"/>
-      <c r="I66" s="52"/>
-      <c r="J66" s="52"/>
-      <c r="K66" s="52"/>
-      <c r="L66" s="52"/>
-      <c r="M66" s="52"/>
-      <c r="N66" s="52"/>
-      <c r="O66" s="52"/>
-      <c r="P66" s="52"/>
-      <c r="Q66" s="52"/>
-      <c r="R66" s="52"/>
-      <c r="S66" s="60"/>
-      <c r="T66" s="60"/>
-      <c r="U66" s="60"/>
-      <c r="V66" s="60"/>
-      <c r="W66" s="60"/>
-      <c r="X66" s="60"/>
-      <c r="Y66" s="60"/>
-      <c r="Z66" s="60"/>
-      <c r="AA66" s="60"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:E66">
+    <dataValidation type="list" allowBlank="1" sqref="D2:E58">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4285,11 +3958,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P104"/>
+  <dimension ref="A1:P105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A79" sqref="A79:A104"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4312,7 +3985,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -4413,168 +4086,165 @@
       <c r="A6" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>51</v>
+      <c r="B6" s="63" t="s">
+        <v>420</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>71</v>
+      <c r="B7" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>73</v>
+      <c r="B8" s="63" t="s">
+        <v>423</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="24">
-        <v>1</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>261</v>
+      <c r="A9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B10" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B11" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B12" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B13" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B14" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B15" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="47">
-        <v>8</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>268</v>
+        <v>70</v>
+      </c>
+      <c r="B16" s="24">
+        <v>7</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B17" s="47">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B18" s="47">
+        <v>9</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="47">
         <v>10</v>
       </c>
-      <c r="C18" s="48" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>278</v>
-      </c>
       <c r="C19" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="D19">
-        <v>7</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="D20">
         <v>7</v>
@@ -4582,13 +4252,13 @@
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="D21">
         <v>7</v>
@@ -4596,13 +4266,13 @@
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="D22">
         <v>7</v>
@@ -4610,13 +4280,13 @@
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="D23">
         <v>7</v>
@@ -4624,13 +4294,13 @@
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="D24">
         <v>7</v>
@@ -4638,13 +4308,13 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="D25">
         <v>7</v>
@@ -4652,27 +4322,27 @@
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="D27">
         <v>10</v>
@@ -4680,13 +4350,13 @@
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="D28">
         <v>10</v>
@@ -4694,13 +4364,13 @@
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="D29">
         <v>10</v>
@@ -4708,13 +4378,13 @@
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="D30">
         <v>10</v>
@@ -4722,13 +4392,13 @@
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="D31">
         <v>10</v>
@@ -4736,13 +4406,13 @@
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="D32">
         <v>10</v>
@@ -4750,13 +4420,13 @@
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="D33">
         <v>10</v>
@@ -4764,27 +4434,27 @@
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="D34">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="D35">
         <v>9</v>
@@ -4792,13 +4462,13 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="D36">
         <v>9</v>
@@ -4806,13 +4476,13 @@
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="D37">
         <v>9</v>
@@ -4820,13 +4490,13 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="D38">
         <v>9</v>
@@ -4834,13 +4504,13 @@
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="C39" s="48" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="D39">
         <v>9</v>
@@ -4848,13 +4518,13 @@
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B40" s="47" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="C40" s="48" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="D40">
         <v>9</v>
@@ -4862,13 +4532,13 @@
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="C41" s="48" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="D41">
         <v>9</v>
@@ -4876,13 +4546,13 @@
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="D42">
         <v>9</v>
@@ -4890,27 +4560,27 @@
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="C43" s="48" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="D43">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B44" s="47" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="C44" s="48" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="D44">
         <v>8</v>
@@ -4918,13 +4588,13 @@
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="C45" s="48" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="D45">
         <v>8</v>
@@ -4932,13 +4602,13 @@
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B46" s="47" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="C46" s="48" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="D46">
         <v>8</v>
@@ -4946,13 +4616,13 @@
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B47" s="47" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="C47" s="48" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="D47">
         <v>8</v>
@@ -4960,13 +4630,13 @@
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="C48" s="48" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="D48">
         <v>8</v>
@@ -4974,13 +4644,13 @@
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B49" s="47" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="C49" s="48" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="D49">
         <v>8</v>
@@ -4988,27 +4658,27 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B50" s="47" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="C50" s="48" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="D50">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B51" s="47" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="C51" s="48" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="D51">
         <v>6</v>
@@ -5016,13 +4686,13 @@
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B52" s="47" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="C52" s="48" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="D52">
         <v>6</v>
@@ -5030,13 +4700,13 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B53" s="47" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="C53" s="48" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="D53">
         <v>6</v>
@@ -5044,13 +4714,13 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B54" s="47" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="C54" s="48" t="s">
-        <v>266</v>
+        <v>312</v>
       </c>
       <c r="D54">
         <v>6</v>
@@ -5058,13 +4728,13 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B55" s="47" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="C55" s="48" t="s">
-        <v>337</v>
+        <v>242</v>
       </c>
       <c r="D55">
         <v>6</v>
@@ -5072,13 +4742,13 @@
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B56" s="47" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="C56" s="48" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="D56">
         <v>6</v>
@@ -5086,27 +4756,27 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B57" s="47" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="C57" s="48" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B58" s="47" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="C58" s="48" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="D58">
         <v>4</v>
@@ -5114,13 +4784,13 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B59" s="47" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="C59" s="48" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="D59">
         <v>4</v>
@@ -5128,13 +4798,13 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B60" s="47" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="C60" s="48" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="D60">
         <v>4</v>
@@ -5142,13 +4812,13 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B61" s="47" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="C61" s="48" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="D61">
         <v>4</v>
@@ -5156,27 +4826,27 @@
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B62" s="47" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="C62" s="48" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="D62">
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B63" s="47" t="s">
-        <v>359</v>
-      </c>
-      <c r="C63" t="s">
-        <v>352</v>
+        <v>334</v>
+      </c>
+      <c r="C63" s="48" t="s">
+        <v>327</v>
       </c>
       <c r="D63">
         <v>4</v>
@@ -5184,27 +4854,27 @@
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B64" s="47" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="C64" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B65" s="47" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="C65" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="D65">
         <v>3</v>
@@ -5212,13 +4882,13 @@
     </row>
     <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B66" s="47" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="C66" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="D66">
         <v>3</v>
@@ -5226,13 +4896,13 @@
     </row>
     <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B67" s="47" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="C67" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="D67">
         <v>3</v>
@@ -5240,13 +4910,13 @@
     </row>
     <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B68" s="47" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="C68" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="D68">
         <v>3</v>
@@ -5254,13 +4924,13 @@
     </row>
     <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B69" s="47" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C69" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="D69">
         <v>3</v>
@@ -5268,13 +4938,13 @@
     </row>
     <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B70" s="47" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="C70" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="D70">
         <v>3</v>
@@ -5282,27 +4952,27 @@
     </row>
     <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B71" s="47" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="C71" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="D71">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B72" s="47" t="s">
-        <v>388</v>
+        <v>358</v>
       </c>
       <c r="C72" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="D72">
         <v>5</v>
@@ -5310,13 +4980,13 @@
     </row>
     <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B73" s="47" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="C73" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="D73">
         <v>5</v>
@@ -5324,13 +4994,13 @@
     </row>
     <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B74" s="47" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="C74" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="D74">
         <v>5</v>
@@ -5338,13 +5008,13 @@
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B75" s="47" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="C75" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="D75">
         <v>5</v>
@@ -5352,13 +5022,13 @@
     </row>
     <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B76" s="47" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="C76" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="D76">
         <v>5</v>
@@ -5366,13 +5036,13 @@
     </row>
     <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B77" s="47" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="C77" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="D77">
         <v>5</v>
@@ -5380,13 +5050,13 @@
     </row>
     <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B78" s="47" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="C78" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="D78">
         <v>5</v>
@@ -5394,444 +5064,458 @@
     </row>
     <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>390</v>
+        <v>72</v>
       </c>
       <c r="B79" s="47" t="s">
-        <v>417</v>
+        <v>363</v>
       </c>
       <c r="C79" t="s">
-        <v>391</v>
+        <v>357</v>
       </c>
       <c r="D79">
-        <v>9</v>
-      </c>
-      <c r="E79" t="s">
-        <v>315</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="B80" s="47" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="C80" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="D80">
         <v>9</v>
       </c>
       <c r="E80" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="B81" s="47" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="C81" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="D81">
         <v>9</v>
       </c>
       <c r="E81" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="B82" s="47" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="C82" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="D82">
         <v>9</v>
       </c>
       <c r="E82" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="B83" s="47" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="C83" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="D83">
         <v>9</v>
       </c>
       <c r="E83" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="B84" s="47" t="s">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="C84" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="D84">
         <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="B85" s="47" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="C85" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="D85">
         <v>9</v>
       </c>
       <c r="E85" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="B86" s="47" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="C86" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="D86">
         <v>9</v>
       </c>
       <c r="E86" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="B87" s="47" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="C87" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="D87">
         <v>9</v>
       </c>
       <c r="E87" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="B88" s="47" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="C88" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="D88">
         <v>9</v>
       </c>
       <c r="E88" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="B89" s="47" t="s">
-        <v>433</v>
+        <v>399</v>
       </c>
       <c r="C89" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="D89">
         <v>9</v>
       </c>
       <c r="E89" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="B90" s="47" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="C90" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="D90">
         <v>9</v>
       </c>
       <c r="E90" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="B91" s="47" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="C91" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="D91">
         <v>9</v>
       </c>
       <c r="E91" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="B92" s="47" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="C92" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="D92">
         <v>9</v>
       </c>
       <c r="E92" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="B93" s="47" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="C93" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="D93">
         <v>9</v>
       </c>
       <c r="E93" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="B94" s="47" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="C94" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="D94">
         <v>9</v>
       </c>
       <c r="E94" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="B95" s="47" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="C95" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="D95">
         <v>9</v>
       </c>
       <c r="E95" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="B96" s="47" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
       <c r="C96" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="D96">
         <v>9</v>
       </c>
       <c r="E96" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="B97" s="47" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="C97" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="D97">
         <v>9</v>
       </c>
       <c r="E97" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="B98" s="47" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="C98" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="D98">
         <v>9</v>
       </c>
       <c r="E98" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="B99" s="47" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="C99" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="D99">
         <v>9</v>
       </c>
       <c r="E99" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="B100" s="47" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="C100" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="D100">
         <v>9</v>
       </c>
       <c r="E100" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="B101" s="47" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="C101" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="D101">
         <v>9</v>
       </c>
       <c r="E101" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="B102" s="47" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="C102" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="D102">
         <v>9</v>
       </c>
       <c r="E102" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B103" s="47" t="s">
+        <v>417</v>
+      </c>
+      <c r="C103" t="s">
         <v>390</v>
-      </c>
-      <c r="B103" s="47" t="s">
-        <v>442</v>
-      </c>
-      <c r="C103" t="s">
-        <v>415</v>
       </c>
       <c r="D103">
         <v>9</v>
       </c>
       <c r="E103" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="B104" s="47" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="C104" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="D104">
         <v>9</v>
       </c>
       <c r="E104" t="s">
-        <v>315</v>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B105" s="47" t="s">
+        <v>405</v>
+      </c>
+      <c r="C105" t="s">
+        <v>392</v>
+      </c>
+      <c r="D105">
+        <v>9</v>
+      </c>
+      <c r="E105" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -5910,7 +5594,7 @@
       </c>
       <c r="C2" s="11">
         <f ca="1">NOW()</f>
-        <v>44062.927276041664</v>
+        <v>44150.352939236109</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14" t="s">
@@ -5980,16 +5664,16 @@
         <v>37</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -6011,7 +5695,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>32</v>
@@ -6042,7 +5726,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>41</v>
@@ -6095,13 +5779,13 @@
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
@@ -6126,13 +5810,13 @@
     </row>
     <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -6157,13 +5841,13 @@
     </row>
     <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -6188,13 +5872,13 @@
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
@@ -6219,13 +5903,13 @@
     </row>
     <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
@@ -6275,13 +5959,13 @@
     </row>
     <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6306,13 +5990,13 @@
     </row>
     <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>101</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>105</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6337,13 +6021,13 @@
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6368,13 +6052,13 @@
     </row>
     <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6399,13 +6083,13 @@
     </row>
     <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
@@ -6430,13 +6114,13 @@
     </row>
     <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6486,13 +6170,13 @@
     </row>
     <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
@@ -6517,13 +6201,13 @@
     </row>
     <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
@@ -6548,13 +6232,13 @@
     </row>
     <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
@@ -6579,13 +6263,13 @@
     </row>
     <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
@@ -6610,13 +6294,13 @@
     </row>
     <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
@@ -6641,13 +6325,13 @@
     </row>
     <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
@@ -6697,13 +6381,13 @@
     </row>
     <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
@@ -6728,13 +6412,13 @@
     </row>
     <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>117</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>121</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
@@ -6759,13 +6443,13 @@
     </row>
     <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
@@ -6790,13 +6474,13 @@
     </row>
     <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6821,13 +6505,13 @@
     </row>
     <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
@@ -6877,10 +6561,10 @@
     </row>
     <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>32</v>
@@ -6908,10 +6592,10 @@
     </row>
     <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>41</v>
@@ -6964,121 +6648,121 @@
     </row>
     <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B42" si="0">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7089,26 +6773,26 @@
     </row>
     <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="1"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="1"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7119,13 +6803,13 @@
     </row>
     <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="46" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B48" s="46" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C48" s="46" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D48" s="46"/>
       <c r="E48" s="46"/>
@@ -7150,13 +6834,13 @@
     </row>
     <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="46" t="s">
         <v>146</v>
-      </c>
-      <c r="B49" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="C49" s="46" t="s">
-        <v>150</v>
       </c>
       <c r="D49" s="46"/>
       <c r="E49" s="46"/>
@@ -7182,226 +6866,226 @@
     <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B51" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C51" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" t="s">
         <v>151</v>
-      </c>
-      <c r="B52" t="s">
-        <v>154</v>
-      </c>
-      <c r="C52" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B53" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C53" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B54" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C54" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B55" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C55" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B56" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="46" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B58" s="46" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C58" s="46" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="B59" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" s="46" t="s">
         <v>163</v>
-      </c>
-      <c r="B59" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="C59" s="46" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="46" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B60" s="46" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C60" s="46" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="46" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B61" s="46" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C61" s="46" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C63" s="46" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C64" s="46" t="s">
         <v>172</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C64" s="46" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C65" s="46" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C66" s="46" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C67" s="46" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B69" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C69" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>179</v>
+      </c>
+      <c r="B70" t="s">
+        <v>182</v>
+      </c>
+      <c r="C70" t="s">
         <v>183</v>
-      </c>
-      <c r="B70" t="s">
-        <v>186</v>
-      </c>
-      <c r="C70" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B72" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C72" s="55" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B73" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C73" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C74" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
